--- a/experiment/linear/ex9_1_8/compare/Alpha-Zero/ex9_1_8_Alpha-Zero.xlsx
+++ b/experiment/linear/ex9_1_8/compare/Alpha-Zero/ex9_1_8_Alpha-Zero.xlsx
@@ -497,13 +497,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.00025839</v>
+        <v>0.000306954</v>
       </c>
       <c r="F2">
-        <v>0.01810359</v>
+        <v>0.087237762</v>
       </c>
       <c r="G2">
-        <v>0.000426054978</v>
+        <v>0.0006034477299367704</v>
       </c>
       <c r="H2">
         <v>1552</v>
@@ -538,13 +538,13 @@
         <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0.00192906</v>
+        <v>0.002803321</v>
       </c>
       <c r="F3">
-        <v>0.00660654</v>
+        <v>0.006321709</v>
       </c>
       <c r="G3">
-        <v>0.0024935374825174827</v>
+        <v>0.003330911396264176</v>
       </c>
       <c r="H3">
         <v>1950</v>
@@ -579,13 +579,13 @@
         <v>0.0</v>
       </c>
       <c r="E4">
-        <v>0.02700468</v>
+        <v>0.037465786</v>
       </c>
       <c r="F4">
-        <v>0.03777597</v>
+        <v>0.04796625</v>
       </c>
       <c r="G4">
-        <v>0.029214541046511628</v>
+        <v>0.0392210034453125</v>
       </c>
       <c r="H4">
         <v>21782</v>
